--- a/output_el.xlsx
+++ b/output_el.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Desktop\oemof\oemof-training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\oemof-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C3B155-4C4E-4419-8D29-99BFD0B4223A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="графики" sheetId="3" r:id="rId1"/>
@@ -94,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -372,8 +371,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -609,7 +606,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
@@ -9792,7 +9788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-BY"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9830,7 +9826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-BY"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="154500959"/>
@@ -9922,7 +9918,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-BY"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9954,7 +9950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-BY"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="159265679"/>
@@ -10015,12 +10011,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-BY"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10028,7 +10025,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10049,7 +10045,7 @@
       <a:pPr>
         <a:defRPr sz="800"/>
       </a:pPr>
-      <a:endParaRPr lang="ru-BY"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12441,6 +12437,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12466,7 +12463,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-BY"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12504,7 +12501,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-BY"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="250441391"/>
@@ -12569,6 +12566,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12594,7 +12592,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-BY"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12626,7 +12624,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-BY"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="247627487"/>
@@ -12684,12 +12682,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-BY"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12697,7 +12696,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12718,7 +12716,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-BY"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13948,7 +13946,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="alex" refreshedDate="44671.725318287034" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="169" xr:uid="{5A6A74BD-6D08-4B99-A06C-50EA9956A8CD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="alex" refreshedDate="44671.725318287034" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="169">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -14160,7 +14158,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="alex" refreshedDate="44671.892279629632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="169" xr:uid="{7606F130-3F3A-4D71-89F0-14644062970D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="alex" refreshedDate="44671.892279629632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="169">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица2"/>
   </cacheSource>
@@ -17068,7 +17066,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48B3C564-F626-4A31-ACD1-0C33582E8F83}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Дата">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Дата">
   <location ref="L7:T177" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -17895,7 +17893,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24C60CA1-218F-44F4-98F1-305947D6AA7B}" name="Сводная таблица3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="F8:H178" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -18674,30 +18672,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B05180E-47DB-4D75-A136-A16DCC4F5053}" name="Таблица1" displayName="Таблица1" ref="A1:I170" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:I170" xr:uid="{86A02655-1102-45E7-AF65-BA4761275DE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:I170" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:I170"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B555BACD-62E3-48E0-83D4-114D8618B532}" name="Дата" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{122489DB-4071-4B69-B1CF-C30B3AE6E03E}" name="БелАЭС_1" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{814F4EF4-3289-4E3C-8DA6-F8E8F4E4DF4E}" name="Новая АЭС_1" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{FC225E86-FEE6-48F8-B40C-DC90681459FB}" name="Блок-станции_1" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FFB51FA8-BF4F-43AE-ABEB-EAF0F29536D3}" name="ТЭЦ_1" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{EEBFA896-2A9F-4F0F-BB70-124E4745F409}" name="ПГУ_1" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{9D35708A-9654-4BAB-A172-6B1ACBF553F1}" name="Турбина 'К'_1" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{D8F69F11-54B9-4CD9-B7B1-8C00BF8AE625}" name="ВИЭ_1" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3A2B773F-5284-4C51-9219-549B206AD1AD}" name="Мощность без ЭК_1" dataDxfId="5"/>
+    <tableColumn id="1" name="Дата" dataDxfId="13"/>
+    <tableColumn id="2" name="БелАЭС_1" dataDxfId="12"/>
+    <tableColumn id="3" name="Новая АЭС_1" dataDxfId="11"/>
+    <tableColumn id="4" name="Блок-станции_1" dataDxfId="10"/>
+    <tableColumn id="5" name="ТЭЦ_1" dataDxfId="9"/>
+    <tableColumn id="6" name="ПГУ_1" dataDxfId="8"/>
+    <tableColumn id="7" name="Турбина 'К'_1" dataDxfId="7"/>
+    <tableColumn id="8" name="ВИЭ_1" dataDxfId="6"/>
+    <tableColumn id="9" name="Мощность без ЭК_1" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8D5FC99-3BC0-4EB9-9F7F-6C544C72B124}" name="Таблица2" displayName="Таблица2" ref="A1:C170" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C170" xr:uid="{909E5FC0-8D90-4367-A9FA-D5C61227E435}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:C170" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C170"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E8141757-C49E-4CB9-B0FB-42717AE0245D}" name="Дата" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{524058CC-4FA2-4790-B1B8-0728B57A3775}" name="ТЭЦ_1" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{79F64AB0-AEC0-4AC9-B459-25F3FEAC42DA}" name="Электрокотлы_1" dataDxfId="0"/>
+    <tableColumn id="1" name="Дата" dataDxfId="2"/>
+    <tableColumn id="2" name="ТЭЦ_1" dataDxfId="1"/>
+    <tableColumn id="3" name="Электрокотлы_1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18987,11 +18985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD0CFC7-A277-4D0F-986E-EF69F84A3488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19002,7 +19000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T177"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
@@ -28600,7 +28598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5789B803-DD6C-406B-8B39-33F0A82F9B86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
